--- a/data/trans_bre/POLIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,44; 17,05</t>
+          <t>9,2; 17,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,11; 22,78</t>
+          <t>14,07; 22,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,13; 22,25</t>
+          <t>13,56; 22,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,37; 69,49</t>
+          <t>31,75; 70,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,11; 124,81</t>
+          <t>61,01; 122,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,77; 88,26</t>
+          <t>43,5; 89,71</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,22</t>
+          <t>3,4; 7,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 9,13</t>
+          <t>5,11; 8,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,42</t>
+          <t>3,94; 9,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,55; 132,8</t>
+          <t>50,62; 137,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>70,51; 161,1</t>
+          <t>68,92; 156,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,42; 105,14</t>
+          <t>38,15; 105,33</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 5,43</t>
+          <t>-1,22; 5,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 4,85</t>
+          <t>-0,92; 4,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,79</t>
+          <t>3,57; 9,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 173,4</t>
+          <t>-20,69; 176,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 183,43</t>
+          <t>-19,8; 169,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,79; 169,51</t>
+          <t>37,22; 162,67</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,63</t>
+          <t>8,02; 11,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 11,97</t>
+          <t>8,54; 12,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 12,29</t>
+          <t>8,19; 12,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,39; 104,61</t>
+          <t>62,3; 104,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,35; 141,19</t>
+          <t>84,22; 139,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,09; 107,4</t>
+          <t>63,41; 108,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,2; 17,44</t>
+          <t>9,25; 17,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,07; 22,88</t>
+          <t>13,98; 22,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,75; 70,69</t>
+          <t>31,74; 69,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,01; 122,82</t>
+          <t>60,97; 123,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,3</t>
+          <t>3,48; 7,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,98</t>
+          <t>5,22; 9,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,62; 137,05</t>
+          <t>48,68; 133,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,92; 156,62</t>
+          <t>70,95; 159,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,28</t>
+          <t>-0,73; 5,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 4,67</t>
+          <t>-0,9; 4,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 176,02</t>
+          <t>-14,96; 180,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 169,5</t>
+          <t>-18,61; 165,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,52</t>
+          <t>8,07; 11,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 12,06</t>
+          <t>8,58; 12,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,3; 104,37</t>
+          <t>62,24; 105,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,22; 139,05</t>
+          <t>84,25; 141,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/POLIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 17,36</t>
+          <t>9,44; 17,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,98; 22,7</t>
+          <t>14,11; 22,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,56; 22,61</t>
+          <t>13,13; 22,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,74; 69,18</t>
+          <t>32,37; 69,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,97; 123,69</t>
+          <t>62,11; 124,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,5; 89,71</t>
+          <t>41,77; 88,26</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,33</t>
+          <t>3,41; 7,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,12</t>
+          <t>5,19; 9,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 9,34</t>
+          <t>4,0; 9,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,68; 133,24</t>
+          <t>47,55; 132,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>70,95; 159,4</t>
+          <t>70,51; 161,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,15; 105,33</t>
+          <t>38,42; 105,14</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 5,15</t>
+          <t>-0,9; 5,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,68</t>
+          <t>-0,96; 4,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 9,7</t>
+          <t>3,47; 9,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 180,13</t>
+          <t>-20,75; 173,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 165,34</t>
+          <t>-18,73; 183,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,22; 162,67</t>
+          <t>37,79; 169,51</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,71</t>
+          <t>7,84; 11,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,13</t>
+          <t>8,57; 11,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,36</t>
+          <t>8,1; 12,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,24; 105,69</t>
+          <t>61,39; 104,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,25; 141,69</t>
+          <t>85,35; 141,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,41; 108,74</t>
+          <t>63,09; 107,4</t>
         </is>
       </c>
     </row>
